--- a/RTAA_FR.xlsx
+++ b/RTAA_FR.xlsx
@@ -9,42 +9,53 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6924"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8508" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Introduction" sheetId="1" r:id="rId1"/>
-    <sheet name="Data Viewer Application" sheetId="2" r:id="rId2"/>
-    <sheet name="eDoc Discovery" sheetId="3" r:id="rId3"/>
-    <sheet name="ESRI_MAPINFO_SHEET" sheetId="4" state="veryHidden" r:id="rId4"/>
+    <sheet name="Introduction" sheetId="6" r:id="rId1"/>
+    <sheet name="Framework" sheetId="2" r:id="rId2"/>
+    <sheet name="Data Viewer Application" sheetId="3" r:id="rId3"/>
+    <sheet name="eDoc Discovery" sheetId="4" r:id="rId4"/>
+    <sheet name="ESRI_MAPINFO_SHEET" sheetId="5" state="veryHidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>FUNCTIONAL REQUIREMENTS - Introduction</t>
   </si>
   <si>
     <t>These GIS Web Applications are to be designed to assist airport staff at the Reno Tahoe Airport.  The applications included in this Function Requirements (FR) worksheet are: 
-1) Data Viewer Application 
-2) eDoc Discovery</t>
+1) Framework 
+2) Data Viewer Application 
+3) eDoc Discovery</t>
+  </si>
+  <si>
+    <t>FUNCTIONAL REQUIREMENTS - Framework</t>
+  </si>
+  <si>
+    <t>Req #</t>
+  </si>
+  <si>
+    <t>Requirement Summary</t>
+  </si>
+  <si>
+    <t>Completion Status</t>
+  </si>
+  <si>
+    <t>Importance Level</t>
+  </si>
+  <si>
+    <t>Technical Dependencies</t>
+  </si>
+  <si>
+    <t>Comments</t>
   </si>
   <si>
     <t>FUNCTIONAL REQUIREMENTS - Data Viewer Application</t>
-  </si>
-  <si>
-    <t>Requirement Summary</t>
-  </si>
-  <si>
-    <t>Completion Status</t>
-  </si>
-  <si>
-    <t>Importance Level</t>
-  </si>
-  <si>
-    <t>Technical Dependencies</t>
   </si>
   <si>
     <t>FUNCTIONAL REQUIREMENTS - eDoc Discovery</t>
@@ -54,7 +65,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +76,11 @@
     <font>
       <b/>
       <sz val="14"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -93,8 +109,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -498,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,213 +526,294 @@
     <col min="1" max="1" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E15"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="6" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="25" customWidth="1"/>
+    <col min="1" max="6" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="25" customWidth="1"/>
+    <col min="1" max="6" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
